--- a/resources/Final Results/Comparison to other solvers.xlsx
+++ b/resources/Final Results/Comparison to other solvers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deard\Documents\Diss\Minesweeper-Assistant\resources\Final Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{717C11A0-4F59-447C-B48F-0E3769F904C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8560B27F-5049-4B90-AC8C-ECBF8A9581A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2892" yWindow="2484" windowWidth="17280" windowHeight="8964" xr2:uid="{4765EAF2-9934-4053-BF19-A1E3CD093B8B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Difficulty</t>
   </si>
@@ -45,12 +45,6 @@
     <t>EXPERT</t>
   </si>
   <si>
-    <t>My Best Solver</t>
-  </si>
-  <si>
-    <t>Becerra</t>
-  </si>
-  <si>
     <t>TeddyMethod</t>
   </si>
   <si>
@@ -58,12 +52,6 @@
   </si>
   <si>
     <t>HCSP</t>
-  </si>
-  <si>
-    <t>Becerra Coupled Subsets CSP</t>
-  </si>
-  <si>
-    <t>https://dash.harvard.edu/bitstream/handle/1/14398552/BECERRA-SENIORTHESIS-2015.pdf?sequence=1</t>
   </si>
   <si>
     <t>Studholmn</t>
@@ -84,13 +72,22 @@
     <t>https://hal.inria.fr/hal-00750577v2/document</t>
   </si>
   <si>
-    <t>CSP (Dmitry Kamenetsky and Choon Hui Teo)</t>
+    <t>(My) Strategic Solver</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>PGMS-CSP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="\+0.00;\-0.00;0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,9 +126,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -165,6 +164,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Minesweeper</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Solvers Win Rate </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -225,16 +260,71 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>My Best Solver</c:v>
+                  <c:v>(My) Strategic Solver</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Becerra Coupled Subsets CSP</c:v>
+                  <c:v>PGMS-CSP</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>TeddyMethod</c:v>
@@ -244,24 +334,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>OH</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSP (Dmitry Kamenetsky and Choon Hui Teo)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>91.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.25</c:v>
+                  <c:v>84.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>91.78</c:v>
@@ -271,9 +358,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>89.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,16 +392,71 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>My Best Solver</c:v>
+                  <c:v>(My) Strategic Solver</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Becerra Coupled Subsets CSP</c:v>
+                  <c:v>PGMS-CSP</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>TeddyMethod</c:v>
@@ -327,24 +466,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>OH</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSP (Dmitry Kamenetsky and Choon Hui Teo)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>77.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.94</c:v>
+                  <c:v>54.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>77.84</c:v>
@@ -354,9 +490,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>74.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,16 +524,71 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>My Best Solver</c:v>
+                  <c:v>(My) Strategic Solver</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Becerra Coupled Subsets CSP</c:v>
+                  <c:v>PGMS-CSP</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>TeddyMethod</c:v>
@@ -410,24 +598,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>OH</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSP (Dmitry Kamenetsky and Choon Hui Teo)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>38.369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.9</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>38.840000000000003</c:v>
@@ -437,9 +622,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>38.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.200000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -451,8 +633,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -469,6 +652,80 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Solving</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Technique</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -534,6 +791,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Win Rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1202,8 +1528,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1528,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CBEC8A-F26A-41E9-A601-D766D1B19AE6}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,30 +1866,45 @@
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1571,7 +1912,7 @@
         <v>91.57</v>
       </c>
       <c r="C2">
-        <v>91.25</v>
+        <v>84.8</v>
       </c>
       <c r="D2">
         <v>91.78</v>
@@ -1582,11 +1923,30 @@
       <c r="F2">
         <v>89.9</v>
       </c>
-      <c r="G2">
-        <v>84.8</v>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>91.57</v>
+      </c>
+      <c r="K2" s="3">
+        <f>C2-B2</f>
+        <v>-6.769999999999996</v>
+      </c>
+      <c r="L2" s="3">
+        <f>D2-B2</f>
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="M2" s="3">
+        <f>E2-B2</f>
+        <v>-1.0699999999999932</v>
+      </c>
+      <c r="N2" s="3">
+        <f>F2-B2</f>
+        <v>-1.6699999999999875</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1594,7 +1954,7 @@
         <v>77.680000000000007</v>
       </c>
       <c r="C3">
-        <v>75.94</v>
+        <v>54.5</v>
       </c>
       <c r="D3">
         <v>77.84</v>
@@ -1605,11 +1965,30 @@
       <c r="F3">
         <v>74.400000000000006</v>
       </c>
-      <c r="G3">
-        <v>54.5</v>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="K3" s="3">
+        <f>C3-B3</f>
+        <v>-23.180000000000007</v>
+      </c>
+      <c r="L3" s="3">
+        <f>D3-B3</f>
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="M3" s="3">
+        <f>E3-B3</f>
+        <v>-1.2800000000000011</v>
+      </c>
+      <c r="N3" s="3">
+        <f>F3-B3</f>
+        <v>-3.2800000000000011</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1996,7 @@
         <v>38.369999999999997</v>
       </c>
       <c r="C4">
-        <v>32.9</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D4">
         <v>38.840000000000003</v>
@@ -1628,58 +2007,71 @@
       <c r="F4">
         <v>38.700000000000003</v>
       </c>
-      <c r="G4">
-        <v>39.200000000000003</v>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="K4" s="3">
+        <f>C4-B4</f>
+        <v>0.8300000000000054</v>
+      </c>
+      <c r="L4" s="3">
+        <f>D4-B4</f>
+        <v>0.47000000000000597</v>
+      </c>
+      <c r="M4" s="3">
+        <f>E4-B4</f>
+        <v>-0.26999999999999602</v>
+      </c>
+      <c r="N4" s="3">
+        <f>F4-B4</f>
+        <v>0.3300000000000054</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{DC35DF3E-39D4-47E2-9908-AABE07DD5365}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{868AFDF6-A194-4B4A-9F61-DB4EEDD3FF5B}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{8B33E575-7A44-444D-8B6B-3340A7EE37A7}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{868AFDF6-A194-4B4A-9F61-DB4EEDD3FF5B}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{8B33E575-7A44-444D-8B6B-3340A7EE37A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>